--- a/biology/Botanique/Parc_de_Beauregard-Quincé/Parc_de_Beauregard-Quincé.xlsx
+++ b/biology/Botanique/Parc_de_Beauregard-Quincé/Parc_de_Beauregard-Quincé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_Beauregard-Quinc%C3%A9</t>
+          <t>Parc_de_Beauregard-Quincé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Beauregard-Quincé est un parc de 15 hectares situé au nord-ouest de Rennes, dans le quartier de Beauregard.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_Beauregard-Quinc%C3%A9</t>
+          <t>Parc_de_Beauregard-Quincé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé au nord-ouest de la ville, dans le quartier Beauregard. Il longe la rocade de Rennes sur 800 m, entre la rue Fernand Robert et le boulevard de la Robiquette. Il est bordé au sud par l'avenue André Malraux et l'avenue Jacqueline de Romilly, pour une superficie de 12 ha. Il est situé à proximité du parc de Beauregard, inauguré au début des années 2000 à la création du quartier.
 Il est entièrement ouvert et possède plusieurs entrées de chaque côté, par les rues qui le bordent, ainsi que par la zone commerciale du centre Grand quartier.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_Beauregard-Quinc%C3%A9</t>
+          <t>Parc_de_Beauregard-Quincé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Beauregard-Quincé ouvre en juin 2023, après deux ans de travaux[1]. Le parc s'intègre dans une phase d'extension du quartier de Beauregard, avec un programme immobilier délimitant les contours du parc tout en préservant une identité bocagère[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Beauregard-Quincé ouvre en juin 2023, après deux ans de travaux. Le parc s'intègre dans une phase d'extension du quartier de Beauregard, avec un programme immobilier délimitant les contours du parc tout en préservant une identité bocagère.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_de_Beauregard-Quinc%C3%A9</t>
+          <t>Parc_de_Beauregard-Quincé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du mobilier en bois, des tables, des bancs et des chaises, est disséminé dans le parc et des belvédères permettent d'observer la ville en hauteur. Une aire de jeux pour enfants est installée au centre du parc[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du mobilier en bois, des tables, des bancs et des chaises, est disséminé dans le parc et des belvédères permettent d'observer la ville en hauteur. Une aire de jeux pour enfants est installée au centre du parc.
 </t>
         </is>
       </c>
